--- a/biology/Médecine/Incisure_radiale_de_l'ulna/Incisure_radiale_de_l'ulna.xlsx
+++ b/biology/Médecine/Incisure_radiale_de_l'ulna/Incisure_radiale_de_l'ulna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incisure_radiale_de_l%27ulna</t>
+          <t>Incisure_radiale_de_l'ulna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incisure radiale de l'ulna (ou petite cavité sigmoïde du cubitus) est la surface articulaire étroite et oblongue située sur la face latérale du processus coronoïde de l'ulna.
 Elle est concave d'avant en arrière, et ses extrémités proéminentes servent à la fixation du ligament annulaire.
